--- a/BalanceSheet/ODFL_bal.xlsx
+++ b/BalanceSheet/ODFL_bal.xlsx
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="C18" s="0" t="n">
-        <v>-41011000.0</v>
+        <v>220000000.0</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>237000000.0</v>
